--- a/data/trans_dic/P31_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P31_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que camina &gt; 30 min &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que camina &gt; 30 min &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,63%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>38,03%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,13%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37,89%</t>
+          <t>33,03%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>45,73%</t>
+          <t>30,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>36,2%</t>
+          <t>39,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>31,2%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>34,77%</t>
+          <t>38,21%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>37,13%</t>
+          <t>33,89%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>31,47%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>32,24%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>30,45%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,35; 47,28</t>
+          <t>21,21; 57,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,04; 37,74</t>
+          <t>10,5; 41,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,63; 51,46</t>
+          <t>15,22; 50,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,28; 38,89</t>
+          <t>9,04; 40,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,37; 59,57</t>
+          <t>18,55; 45,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,53; 48,15</t>
+          <t>25,32; 53,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,91; 39,59</t>
+          <t>19,2; 46,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,36; 43,87</t>
+          <t>24,47; 54,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,1; 46,09</t>
+          <t>24,08; 46,49</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>21,68; 43,19</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>21,61; 45,5</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>21,06; 41,87</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,41%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>36,61%</t>
+          <t>41,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>37,16%</t>
+          <t>35,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,9%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
+          <t>28,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,68%</t>
+          <t>38,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>34,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>38,67%</t>
+          <t>35,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>38,36%</t>
+          <t>32,41%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>39,83%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>35,28%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>25,09%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,84; 51,95</t>
+          <t>19,11; 63,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,93; 52,64</t>
+          <t>22,73; 64,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,47; 58,74</t>
+          <t>15,22; 68,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,09; 39,7</t>
+          <t>6,83; 32,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,13; 52,58</t>
+          <t>16,96; 40,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,36; 51,11</t>
+          <t>25,96; 51,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,42; 42,32</t>
+          <t>22,44; 47,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,17; 47,3</t>
+          <t>23,04; 51,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,55; 50,39</t>
+          <t>21,58; 47,11</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>27,4; 53,44</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>23,48; 53,39</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13,9; 37,29</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>50,12%</t>
+          <t>43,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>37,8%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>46,14%</t>
+          <t>48,29%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>38,98%</t>
+          <t>40,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>45,14%</t>
+          <t>39,65%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>41,72%</t>
+          <t>52,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>44,26%</t>
+          <t>42,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>38,94%</t>
+          <t>45,53%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>43,88%</t>
+          <t>41,22%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>46,89%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>44,99%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>43,42%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>37,67; 64,24</t>
+          <t>31,78; 57,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,82; 42,59</t>
+          <t>25,67; 50,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,32; 58,89</t>
+          <t>37,05; 60,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,66; 47,32</t>
+          <t>27,48; 54,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,36; 53,62</t>
+          <t>29,99; 48,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,12; 50,78</t>
+          <t>42,62; 62,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,11; 52,7</t>
+          <t>32,91; 52,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,55; 45,46</t>
+          <t>34,79; 55,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>36,62; 52,19</t>
+          <t>33,78; 49,3</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>39,44; 54,81</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>37,14; 52,25</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>35,2; 51,63</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,06%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>38,55%</t>
+          <t>36,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,91%</t>
+          <t>23,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>38,43%</t>
+          <t>27,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,26%</t>
+          <t>39,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>39,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>37,32%</t>
+          <t>24,43%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>33,67%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>36,33%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>32,08%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,83; 27,21</t>
+          <t>13,13; 31,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,91; 41,75</t>
+          <t>18,06; 37,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,87; 47,32</t>
+          <t>26,54; 48,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,51; 34,57</t>
+          <t>15,08; 34,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,43; 46,63</t>
+          <t>20,28; 37,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,3; 43,72</t>
+          <t>30,77; 49,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,94; 29,09</t>
+          <t>27,44; 45,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,49; 41,69</t>
+          <t>30,5; 51,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,87; 43,16</t>
+          <t>18,8; 31,0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>26,88; 41,75</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>29,63; 43,74</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>25,04; 39,6</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>24,86%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>32,01%</t>
+          <t>30,41%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>33,29%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>44,42%</t>
+          <t>34,85%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>25,29%</t>
+          <t>39,82%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>35,05%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>34,91%</t>
+          <t>24,88%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>32,23%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>32,59%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>29,32%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,67; 32,5</t>
+          <t>15,06; 36,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,37; 41,83</t>
+          <t>19,45; 41,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,6; 35,95</t>
+          <t>17,36; 38,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,49; 36,76</t>
+          <t>15,0; 35,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,84; 42,58</t>
+          <t>14,27; 39,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,77; 53,66</t>
+          <t>22,52; 48,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,2; 31,3</t>
+          <t>26,38; 54,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,42; 39,27</t>
+          <t>22,41; 50,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,6; 41,52</t>
+          <t>17,91; 34,19</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>24,17; 42,35</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>24,38; 41,61</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>21,0; 37,69</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>28,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>25,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>43,33%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>39,18%</t>
+          <t>48,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>36,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>34,17%</t>
+          <t>34,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>29,34%</t>
+          <t>39,64%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>29,38%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>30,55%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>35,03%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,72; 32,38</t>
+          <t>15,71; 44,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,09; 32,97</t>
+          <t>10,14; 36,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,59; 33,33</t>
+          <t>13,94; 41,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,04; 53,36</t>
+          <t>8,55; 34,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,93; 51,18</t>
+          <t>33,43; 63,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,21; 46,0</t>
+          <t>22,66; 53,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,17; 42,03</t>
+          <t>17,51; 52,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,38; 40,72</t>
+          <t>29,97; 66,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,22; 38,03</t>
+          <t>29,66; 50,16</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>20,44; 41,43</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>20,47; 42,68</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>24,13; 50,56</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>31,64%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>30,88%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>36,06%</t>
+          <t>35,15%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>32,6%</t>
+          <t>24,72%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>33,67%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>38,45%</t>
+          <t>41,71%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>37,03%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>35,88%</t>
+          <t>40,82%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>37,28%</t>
+          <t>32,73%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>36,54%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>36,11%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>32,95%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,34; 37,89</t>
+          <t>26,03; 39,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>26,17; 35,37</t>
+          <t>25,16; 37,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,43; 41,77</t>
+          <t>28,84; 43,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>29,07; 36,36</t>
+          <t>19,57; 30,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>36,72; 44,87</t>
+          <t>28,78; 38,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>33,68; 42,9</t>
+          <t>36,58; 47,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,05; 35,23</t>
+          <t>32,21; 42,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>32,9; 38,69</t>
+          <t>35,83; 47,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>34,06; 40,69</t>
+          <t>29,15; 36,75</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>32,46; 40,52</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>32,39; 40,7</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>28,89; 37,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que camina &gt; 30 min &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,63%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>40697</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>24219</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>42137</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>31089</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>40979</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>46841</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>38498</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>55595</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>81676</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>71060</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>80635</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>86684</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>22697; 61375</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11104; 43533</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>19416; 63929</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12584; 56221</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>24854; 60882</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>30410; 64334</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23528; 56607</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>35596; 79010</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>58049; 112058</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>48945; 97516</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>54048; 113783</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>59940; 119193</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>61570</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>59116</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>55133</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>41722</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>46615</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>48452</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>43864</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>52593</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>108185</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>107569</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>98997</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>94314</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>32249; 107829</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>32592; 92705</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>23474; 105831</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>15542; 74357</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>27996; 66780</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>32889; 65248</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28344; 60532</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>34163; 75713</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>72034; 157262</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>74013; 144333</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>65883; 149792</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>52268; 140213</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>70945</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>50792</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>66461</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>70979</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>104698</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>109426</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>85668</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>109142</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>175643</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>152129</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>180121</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>51497; 93899</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>34491; 67791</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>50993; 83923</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>48134; 94674</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>79203; 128432</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>88374; 130137</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>65974; 105002</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>83405; 133483</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>143942; 210098</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>134762; 187299</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>125573; 176649</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>146024; 214211</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>38157</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>43431</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>56795</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>47437</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>60781</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>73464</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>62606</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>83059</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>98939</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>116895</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>119401</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>130497</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>24508; 58805</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>29118; 60576</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>41456; 76449</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>29904; 69094</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>44277; 81964</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>57205; 91239</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>47329; 79065</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>63592; 106574</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>76153; 125570</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>93325; 144934</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>97400; 143762</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>101874; 161110</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>38484</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>40167</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>33448</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>37847</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>28929</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>32061</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>36906</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>45810</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>67413</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>72228</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>70354</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>83658</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>23310; 56345</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>25688; 54741</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>21382; 47551</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>23200; 55542</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>16579; 46069</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>20719; 44540</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>24451; 50277</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>29299; 66155</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>48524; 92646</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>54159; 94903</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>52621; 89813</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>59928; 107550</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>31289</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>17465</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>23334</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>26264</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>66597</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>36842</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>37983</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>94707</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>97885</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>54307</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>61317</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>120971</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>17174; 48284</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8603; 31039</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>12561; 37483</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>11782; 46858</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>46000; 87220</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>22671; 53356</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>19372; 58337</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>62186; 138858</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>73244; 123853</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>37790; 76596</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>41095; 85680</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>83314; 174595</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>281142</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>235190</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>277309</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>255338</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>348599</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>347087</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>305525</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>440906</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>629741</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>582277</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>582834</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>696244</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>231283; 346852</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>191621; 286133</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>227587; 340705</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>202160; 312213</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>298012; 397173</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>304353; 391635</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>265751; 348808</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>387015; 510024</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>560935; 707118</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>517327; 645696</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>522760; 656841</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>610519; 787414</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>